--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.3723396666667</v>
+        <v>49.96455633333333</v>
       </c>
       <c r="H2">
-        <v>328.117019</v>
+        <v>149.893669</v>
       </c>
       <c r="I2">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="J2">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N2">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q2">
-        <v>150.7670723794549</v>
+        <v>90.72369277236966</v>
       </c>
       <c r="R2">
-        <v>1356.903651415094</v>
+        <v>816.513234951327</v>
       </c>
       <c r="S2">
-        <v>0.01686417733856591</v>
+        <v>0.01087480561474834</v>
       </c>
       <c r="T2">
-        <v>0.01686417733856591</v>
+        <v>0.01087480561474834</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.3723396666667</v>
+        <v>49.96455633333333</v>
       </c>
       <c r="H3">
-        <v>328.117019</v>
+        <v>149.893669</v>
       </c>
       <c r="I3">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="J3">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>39.485284</v>
       </c>
       <c r="O3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q3">
-        <v>1439.532631160933</v>
+        <v>657.6215655852217</v>
       </c>
       <c r="R3">
-        <v>12955.7936804484</v>
+        <v>5918.594090266995</v>
       </c>
       <c r="S3">
-        <v>0.1610201298825415</v>
+        <v>0.0788273324780689</v>
       </c>
       <c r="T3">
-        <v>0.1610201298825415</v>
+        <v>0.07882733247806892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.3723396666667</v>
+        <v>49.96455633333333</v>
       </c>
       <c r="H4">
-        <v>328.117019</v>
+        <v>149.893669</v>
       </c>
       <c r="I4">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="J4">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N4">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O4">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P4">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q4">
-        <v>1006.626702675231</v>
+        <v>485.2262587113924</v>
       </c>
       <c r="R4">
-        <v>9059.640324077078</v>
+        <v>4367.036328402532</v>
       </c>
       <c r="S4">
-        <v>0.1125970741471018</v>
+        <v>0.05816276962951222</v>
       </c>
       <c r="T4">
-        <v>0.1125970741471018</v>
+        <v>0.05816276962951222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.3723396666667</v>
+        <v>49.96455633333333</v>
       </c>
       <c r="H5">
-        <v>328.117019</v>
+        <v>149.893669</v>
       </c>
       <c r="I5">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="J5">
-        <v>0.3006244632995563</v>
+        <v>0.1551859508057627</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N5">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O5">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P5">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q5">
-        <v>90.67995058359534</v>
+        <v>61.07622398085966</v>
       </c>
       <c r="R5">
-        <v>816.1195552523581</v>
+        <v>549.6860158277369</v>
       </c>
       <c r="S5">
-        <v>0.01014308193134707</v>
+        <v>0.007321043083433245</v>
       </c>
       <c r="T5">
-        <v>0.01014308193134707</v>
+        <v>0.007321043083433246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>512.2533120000001</v>
       </c>
       <c r="I6">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="J6">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N6">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q6">
-        <v>235.3761850034347</v>
+        <v>310.0431953501441</v>
       </c>
       <c r="R6">
-        <v>2118.385665030912</v>
+        <v>2790.388758151297</v>
       </c>
       <c r="S6">
-        <v>0.0263282005979572</v>
+        <v>0.03716404589116458</v>
       </c>
       <c r="T6">
-        <v>0.0263282005979572</v>
+        <v>0.03716404589116458</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>512.2533120000001</v>
       </c>
       <c r="I7">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="J7">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>39.485284</v>
       </c>
       <c r="O7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q7">
         <v>2247.385278251179</v>
@@ -883,10 +883,10 @@
         <v>20226.46750426061</v>
       </c>
       <c r="S7">
-        <v>0.2513831653182308</v>
+        <v>0.2693880429200514</v>
       </c>
       <c r="T7">
-        <v>0.2513831653182308</v>
+        <v>0.2693880429200514</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>512.2533120000001</v>
       </c>
       <c r="I8">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="J8">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N8">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O8">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P8">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q8">
-        <v>1571.536471849472</v>
+        <v>1658.233865062571</v>
       </c>
       <c r="R8">
-        <v>14143.82824664525</v>
+        <v>14924.10478556314</v>
       </c>
       <c r="S8">
-        <v>0.1757855302024504</v>
+        <v>0.1987680438845663</v>
       </c>
       <c r="T8">
-        <v>0.1757855302024504</v>
+        <v>0.1987680438845663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>512.2533120000001</v>
       </c>
       <c r="I9">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="J9">
-        <v>0.4693321835689973</v>
+        <v>0.5303393919600503</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N9">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O9">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P9">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q9">
-        <v>141.568715819776</v>
+        <v>208.724612769664</v>
       </c>
       <c r="R9">
-        <v>1274.118442377984</v>
+        <v>1878.521514926976</v>
       </c>
       <c r="S9">
-        <v>0.01583528745035897</v>
+        <v>0.02501925926426801</v>
       </c>
       <c r="T9">
-        <v>0.01583528745035896</v>
+        <v>0.02501925926426802</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.72510066666666</v>
+        <v>13.36927633333333</v>
       </c>
       <c r="H10">
-        <v>44.17530199999999</v>
+        <v>40.107829</v>
       </c>
       <c r="I10">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="J10">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N10">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q10">
-        <v>20.29818804985022</v>
+        <v>24.27541056428966</v>
       </c>
       <c r="R10">
-        <v>182.683692448652</v>
+        <v>218.478695078607</v>
       </c>
       <c r="S10">
-        <v>0.002270470849647409</v>
+        <v>0.002909828326402272</v>
       </c>
       <c r="T10">
-        <v>0.002270470849647409</v>
+        <v>0.002909828326402272</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.72510066666666</v>
+        <v>13.36927633333333</v>
       </c>
       <c r="H11">
-        <v>44.17530199999999</v>
+        <v>40.107829</v>
       </c>
       <c r="I11">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="J11">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>39.485284</v>
       </c>
       <c r="O11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q11">
-        <v>193.8082605839742</v>
+        <v>175.9632242987151</v>
       </c>
       <c r="R11">
-        <v>1744.274345255768</v>
+        <v>1583.669018688436</v>
       </c>
       <c r="S11">
-        <v>0.02167858554645864</v>
+        <v>0.02109223953652461</v>
       </c>
       <c r="T11">
-        <v>0.02167858554645864</v>
+        <v>0.02109223953652462</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.72510066666666</v>
+        <v>13.36927633333333</v>
       </c>
       <c r="H12">
-        <v>44.17530199999999</v>
+        <v>40.107829</v>
       </c>
       <c r="I12">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="J12">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N12">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O12">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P12">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q12">
-        <v>135.5249378025786</v>
+        <v>129.8345149634458</v>
       </c>
       <c r="R12">
-        <v>1219.724440223208</v>
+        <v>1168.510634671012</v>
       </c>
       <c r="S12">
-        <v>0.01515925559095919</v>
+        <v>0.01556291492515851</v>
       </c>
       <c r="T12">
-        <v>0.01515925559095919</v>
+        <v>0.01556291492515851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.72510066666666</v>
+        <v>13.36927633333333</v>
       </c>
       <c r="H13">
-        <v>44.17530199999999</v>
+        <v>40.107829</v>
       </c>
       <c r="I13">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="J13">
-        <v>0.04047390316820419</v>
+        <v>0.04152391238164931</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N13">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O13">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P13">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q13">
-        <v>12.20849261212933</v>
+        <v>16.34248306637966</v>
       </c>
       <c r="R13">
-        <v>109.876433509164</v>
+        <v>147.082347597417</v>
       </c>
       <c r="S13">
-        <v>0.001365591181138946</v>
+        <v>0.00195892959356391</v>
       </c>
       <c r="T13">
-        <v>0.001365591181138946</v>
+        <v>0.001958929593563911</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.96861966666665</v>
+        <v>87.88078300000001</v>
       </c>
       <c r="H14">
-        <v>206.905859</v>
+        <v>263.642349</v>
       </c>
       <c r="I14">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="J14">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N14">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O14">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P14">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q14">
-        <v>95.07154098454821</v>
+        <v>159.570498420863</v>
       </c>
       <c r="R14">
-        <v>855.6438688609338</v>
+        <v>1436.134485787767</v>
       </c>
       <c r="S14">
-        <v>0.01063430695914104</v>
+        <v>0.01912728747196549</v>
       </c>
       <c r="T14">
-        <v>0.01063430695914104</v>
+        <v>0.01912728747196549</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.96861966666665</v>
+        <v>87.88078300000001</v>
       </c>
       <c r="H15">
-        <v>206.905859</v>
+        <v>263.642349</v>
       </c>
       <c r="I15">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="J15">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>39.485284</v>
       </c>
       <c r="O15">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P15">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q15">
-        <v>907.748511542106</v>
+        <v>1156.665891632457</v>
       </c>
       <c r="R15">
-        <v>8169.736603878954</v>
+        <v>10409.99302469212</v>
       </c>
       <c r="S15">
-        <v>0.1015369711427215</v>
+        <v>0.1386464367612623</v>
       </c>
       <c r="T15">
-        <v>0.1015369711427215</v>
+        <v>0.1386464367612623</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.96861966666665</v>
+        <v>87.88078300000001</v>
       </c>
       <c r="H16">
-        <v>206.905859</v>
+        <v>263.642349</v>
       </c>
       <c r="I16">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="J16">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N16">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O16">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P16">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q16">
-        <v>634.7642778302705</v>
+        <v>853.4462562468415</v>
       </c>
       <c r="R16">
-        <v>5712.878500472435</v>
+        <v>7681.016306221572</v>
       </c>
       <c r="S16">
-        <v>0.07100209071231624</v>
+        <v>0.1023003126934632</v>
       </c>
       <c r="T16">
-        <v>0.07100209071231622</v>
+        <v>0.1023003126934632</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>68.96861966666665</v>
+        <v>87.88078300000001</v>
       </c>
       <c r="H17">
-        <v>206.905859</v>
+        <v>263.642349</v>
       </c>
       <c r="I17">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="J17">
-        <v>0.1895694499632421</v>
+        <v>0.2729507448525377</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N17">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O17">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P17">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q17">
-        <v>57.18146875391533</v>
+        <v>107.424678212153</v>
       </c>
       <c r="R17">
-        <v>514.6332187852379</v>
+        <v>966.8221039093771</v>
       </c>
       <c r="S17">
-        <v>0.0063960811490633</v>
+        <v>0.01287670792584671</v>
       </c>
       <c r="T17">
-        <v>0.006396081149063298</v>
+        <v>0.01287670792584672</v>
       </c>
     </row>
   </sheetData>
